--- a/Control Frameworks/CMMC v1.02/CMMC v1.02 (All Maturity Levels).xlsx
+++ b/Control Frameworks/CMMC v1.02/CMMC v1.02 (All Maturity Levels).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsokol/Documents/git/simplerisk/import-content/Control Frameworks/CMMC v1.02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6719613-D4B9-4F4A-878E-D6375884CDAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8C1BCF-E1D7-2D40-85E0-FF31D762A9A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="4240" windowWidth="30340" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20420" yWindow="460" windowWidth="30340" windowHeight="16940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CMMC v1.02 Maturity Level 1" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="473">
   <si>
     <t>Framework Name</t>
   </si>
@@ -1671,12 +1671,131 @@
     <t>• CIS Controls v7.1 7.10
 • NIST SP 800-53 Rev 4 SC-44</t>
   </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP8</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP9</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP10</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP11</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP12</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP13</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP14</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP15</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP16</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP17</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP18</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP19</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP20</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP21</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP22</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP23</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG2.GP24</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP2</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP3</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP4</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP5</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP6</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP7</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP8</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP9</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP10</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP11</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP12</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP13</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP14</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP15</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP16</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP17</t>
+  </si>
+  <si>
+    <t>• CERT RMM v1.2 GG3.GP1
+• CERT RMM v1.2 GG3.GP18</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1812,6 +1931,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2158,9 +2283,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -5512,8 +5640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection sqref="A1:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5564,8 +5692,8 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="str">
-        <f>"CMMC v1.02 Maturity Level 2"</f>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f>"CMMC v1.02 Maturity Level 3"</f>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -5587,7 +5715,7 @@
         <v>AC.3.997: Establish, maintain, and resource a plan that includes Access Control.</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I2,".")</f>
+        <f t="shared" ref="G2:G18" si="0">_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I2,".")</f>
         <v>Establish, maintain, and resource a plan that includes Access Control.</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -5602,30 +5730,30 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A45" si="0">"CMMC v1.02 Maturity Level 2"</f>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" ref="A3:A66" si="1">"CMMC v1.02 Maturity Level 3"</f>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C18" si="1">_xlfn.CONCAT("MC01: Improve ",I3," activities")</f>
+        <f t="shared" ref="C3:C18" si="2">_xlfn.CONCAT("MC01: Improve ",I3," activities")</f>
         <v>MC01: Improve Asset Management activities</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D18" si="2">_xlfn.CONCAT(J3,".3.997")</f>
+        <f t="shared" ref="D3:D18" si="3">_xlfn.CONCAT(J3,".3.997")</f>
         <v>AM.3.997</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E66" si="3">D3</f>
+        <f t="shared" ref="E3:E66" si="4">D3</f>
         <v>AM.3.997</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F44" si="4">_xlfn.CONCAT(D3,": ", G3)</f>
+        <f t="shared" ref="F3:F44" si="5">_xlfn.CONCAT(D3,": ", G3)</f>
         <v>AM.3.997: Establish, maintain, and resource a plan that includes Asset Management.</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I3,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes Asset Management.</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -5640,30 +5768,30 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MC01: Improve Audit and Accountability activities</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AU.3.997</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AU.3.997</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AU.3.997: Establish, maintain, and resource a plan that includes Audit and Accountability.</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I4,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes Audit and Accountability.</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -5678,30 +5806,30 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MC01: Improve Awareness and Training activities</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AT.3.997</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AT.3.997</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AT.3.997: Establish, maintain, and resource a plan that includes Awareness and Training.</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I5,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes Awareness and Training.</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -5716,30 +5844,30 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MC01: Improve Configuration Management activities</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CM.3.997</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CM.3.997</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CM.3.997: Establish, maintain, and resource a plan that includes Configuration Management.</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I6,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes Configuration Management.</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -5754,30 +5882,30 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MC01: Improve Identification and Authentication activities</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IA.3.997</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>IA.3.997</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IA.3.997: Establish, maintain, and resource a plan that includes Identification and Authentication.</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I7,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes Identification and Authentication.</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -5792,30 +5920,30 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MC01: Improve Incident Response activities</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IR.3.997</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>IR.3.997</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IR.3.997: Establish, maintain, and resource a plan that includes Incident Response.</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I8,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes Incident Response.</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -5830,30 +5958,30 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MC01: Improve Maintenance activities</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MA.3.997</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MA.3.997</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>MA.3.997: Establish, maintain, and resource a plan that includes Maintenance.</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I9,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes Maintenance.</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -5868,30 +5996,30 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MC01: Improve Media Protection activities</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MP.3.997</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MP.3.997</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>MP.3.997: Establish, maintain, and resource a plan that includes Media Protection.</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I10,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes Media Protection.</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -5906,30 +6034,30 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MC01: Improve Personnel Security activities</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PS.3.997</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PS.3.997</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>PS.3.997: Establish, maintain, and resource a plan that includes Personnel Security.</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I11,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes Personnel Security.</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -5944,30 +6072,30 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MC01: Improve Physical Protection activities</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PE.3.997</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PE.3.997</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>PE.3.997: Establish, maintain, and resource a plan that includes Physical Protection.</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I12,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes Physical Protection.</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -5982,30 +6110,30 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MC01: Improve Recovery activities</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>RE.3.997</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>RE.3.997</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>RE.3.997: Establish, maintain, and resource a plan that includes Recovery.</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I13,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes Recovery.</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -6020,30 +6148,30 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MC01: Improve Risk Management activities</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>RM.3.997</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>RM.3.997</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>RM.3.997: Establish, maintain, and resource a plan that includes Risk Management.</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I14,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes Risk Management.</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -6058,30 +6186,30 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MC01: Improve Security Assessment activities</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CA.3.997</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CA.3.997</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CA.3.997: Establish, maintain, and resource a plan that includes Security Assessment.</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I15,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes Security Assessment.</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -6096,30 +6224,30 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MC01: Improve Situational Awareness activities</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SA.3.997</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SA.3.997</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>SA.3.997: Establish, maintain, and resource a plan that includes Situational Awareness.</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I16,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes Situational Awareness.</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -6134,30 +6262,30 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MC01: Improve System and Communications Protection activities</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SC.3.997</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SC.3.997</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>SC.3.997: Establish, maintain, and resource a plan that includes System and Communications Protection.</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I17,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes System and Communications Protection.</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -6172,30 +6300,30 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MC01: Improve System and Information Integrity activities</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SI.3.997</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SI.3.997</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>SI.3.997: Establish, maintain, and resource a plan that includes System and Information Integrity.</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>_xlfn.CONCAT("Establish, maintain, and resource a plan that includes ",I18,".")</f>
+        <f t="shared" si="0"/>
         <v>Establish, maintain, and resource a plan that includes System and Information Integrity.</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -6210,8 +6338,8 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -6223,11 +6351,11 @@
         <v>255</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AC.3.017</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AC.3.017: Separate the duties of individuals to reduce the risk of malevolent activity without collusion.</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -6239,8 +6367,8 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -6252,11 +6380,11 @@
         <v>268</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AC.3.018</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AC.3.018: Prevent non-privileged users from executing privileged functions and capture the execution of such functions in audit logs.</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -6268,8 +6396,8 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
@@ -6281,11 +6409,11 @@
         <v>269</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AC.3.019</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AC.3.019: Terminate (automatically) user sessions after a defined condition.</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -6297,8 +6425,8 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>8</v>
@@ -6310,11 +6438,11 @@
         <v>270</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AC.3.012</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AC.3.012: Protect wireless access using authentication and encryption.</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -6326,8 +6454,8 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
@@ -6339,11 +6467,11 @@
         <v>271</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AC.3.020</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AC.3.020: Control connection of mobile devices.</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -6355,8 +6483,8 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>8</v>
@@ -6368,11 +6496,11 @@
         <v>272</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AC.3.014</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AC.3.014: Employ cryptographic mechanisms to protect the confidentiality of remote access sessions.</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -6384,8 +6512,8 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>8</v>
@@ -6397,11 +6525,11 @@
         <v>273</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AC.3.021</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AC.3.021: Authorize remote execution of privileged commands and remote access to security-relevant information.</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -6413,8 +6541,8 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>8</v>
@@ -6426,11 +6554,11 @@
         <v>274</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AC.3.022</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AC.3.022: Encrypt CUI on mobile devices and mobile computing platforms.</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -6442,8 +6570,8 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>257</v>
@@ -6455,11 +6583,11 @@
         <v>275</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AM.3.036</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AM.3.036: Define procedures for the handling of CUI data.</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -6471,8 +6599,8 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>82</v>
@@ -6484,11 +6612,11 @@
         <v>276</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AU.3.045</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AU.3.045: Review and update logged events.</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -6500,8 +6628,8 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>82</v>
@@ -6513,11 +6641,11 @@
         <v>277</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AU.3.046</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AU.3.046: Alert in the event of an audit logging process failure.</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -6529,8 +6657,8 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>82</v>
@@ -6542,11 +6670,11 @@
         <v>278</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AU.3.048</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AU.3.048: Collect audit information (e.g., logs) into one or more central repositories.</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -6558,8 +6686,8 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>82</v>
@@ -6571,11 +6699,11 @@
         <v>279</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AU.3.049</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AU.3.049: Protect audit information and audit logging tools from unauthorized access, modification, and deletion.</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -6587,8 +6715,8 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>82</v>
@@ -6600,11 +6728,11 @@
         <v>280</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AU.3.050</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AU.3.050: Limit management of audit logging functionality to a subset of privileged users.</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -6616,8 +6744,8 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>82</v>
@@ -6629,11 +6757,11 @@
         <v>281</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AU.3.051</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AU.3.051: Correlate audit record review, analysis, and reporting processes for investigation and response to indications of unlawful, unauthorized, suspicious, or unusual activity.</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -6645,8 +6773,8 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>82</v>
@@ -6658,11 +6786,11 @@
         <v>282</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AU.3.052</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AU.3.052: Provide audit record reduction and report generation to support on-demand analysis and reporting.</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -6674,8 +6802,8 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>98</v>
@@ -6687,11 +6815,11 @@
         <v>283</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>AT.3.058</v>
       </c>
       <c r="F35" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AT.3.058: Provide security awareness training on recognizing and reporting potential indicators of insider threat.</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -6703,8 +6831,8 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>107</v>
@@ -6716,11 +6844,11 @@
         <v>284</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CM.3.067</v>
       </c>
       <c r="F36" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CM.3.067: Define, document, approve, and enforce physical and logical access restrictions associated with changes to organizational systems.</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -6732,8 +6860,8 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>107</v>
@@ -6745,11 +6873,11 @@
         <v>285</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CM.3.068</v>
       </c>
       <c r="F37" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CM.3.068: Restrict, disable, or prevent the use of nonessential programs, functions, ports, protocols, and services.</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -6761,8 +6889,8 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>107</v>
@@ -6774,11 +6902,11 @@
         <v>286</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CM.3.069</v>
       </c>
       <c r="F38" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CM.3.069: Apply deny-by-exception (blacklisting) policy to prevent the use of unauthorized software or deny-all, permit-by-exception (whitelisting) policy to allow the execution of authorized software.</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -6790,8 +6918,8 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>12</v>
@@ -6803,11 +6931,11 @@
         <v>287</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>IA.3.083</v>
       </c>
       <c r="F39" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IA.3.083: Use multifactor authentication for local and network access to privileged accounts and for network access to non-privileged accounts.</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -6819,8 +6947,8 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>12</v>
@@ -6832,11 +6960,11 @@
         <v>288</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>IA.3.084</v>
       </c>
       <c r="F40" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IA.3.084: Employ replay-resistant authentication mechanisms for network access to privileged and non-privileged accounts.</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -6848,8 +6976,8 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>12</v>
@@ -6861,11 +6989,11 @@
         <v>289</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>IA.3.085</v>
       </c>
       <c r="F41" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IA.3.085: Prevent the reuse of identifiers for a defined period.</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -6877,8 +7005,8 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>12</v>
@@ -6890,11 +7018,11 @@
         <v>290</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>IA.3.086</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IA.3.086: Disable identifiers after a defined period of inactivity.</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -6906,8 +7034,8 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>143</v>
@@ -6919,11 +7047,11 @@
         <v>291</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>IR.3.098</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IR.3.098: Track, document, and report incidents to designated officials and/or authorities both internal and external to the organization.</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -6935,8 +7063,8 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>143</v>
@@ -6948,11 +7076,11 @@
         <v>292</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>IR.3.099</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>IR.3.099: Test the organizational incident response capability.</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -6964,8 +7092,8 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>163</v>
@@ -6977,11 +7105,11 @@
         <v>293</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MA.3.115</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f t="shared" ref="F45:F76" si="5">_xlfn.CONCAT(D45,": ", G45)</f>
+        <f t="shared" ref="F45:F76" si="6">_xlfn.CONCAT(D45,": ", G45)</f>
         <v>MA.3.115: Ensure equipment removed for off-site maintenance is sanitized of any CUI.</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -6993,8 +7121,8 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="str">
-        <f t="shared" ref="A46:A76" si="6">"CMMC v1.02 Maturity Level 2"</f>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>163</v>
@@ -7006,11 +7134,11 @@
         <v>294</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MA.3.116</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>MA.3.116: Check media containing diagnostic and test programs for malicious code before the media are used in organizational systems.</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -7022,8 +7150,8 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>166</v>
@@ -7035,11 +7163,11 @@
         <v>295</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MP.3.122</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>MP.3.122: Mark media with necessary CUI markings and distribution limitations.</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -7051,8 +7179,8 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>166</v>
@@ -7064,11 +7192,11 @@
         <v>296</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MP.3.123</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>MP.3.123: Prohibit the use of portable storage devices when such devices have no identifiable owner.</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -7080,8 +7208,8 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>166</v>
@@ -7093,11 +7221,11 @@
         <v>297</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MP.3.124</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>MP.3.124: Control access to media containing CUI and maintain accountability for media during transport outside of controlled areas.</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -7109,8 +7237,8 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>166</v>
@@ -7122,11 +7250,11 @@
         <v>298</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>MP.3.125</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>MP.3.125: Implement cryptographic mechanisms to protect the confidentiality of CUI stored on digital media during transport unless otherwise protected by alternative physical safeguards.</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -7138,8 +7266,8 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>170</v>
@@ -7151,11 +7279,11 @@
         <v>299</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>PE.3.136</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>PE.3.136: Enforce safeguarding measures for CUI at alternate work sites.</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -7167,8 +7295,8 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>172</v>
@@ -7180,11 +7308,11 @@
         <v>300</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>RE.3.139</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>RE.3.139: Regularly perform complete, comprehensive, and resilient data backups as organizationally defined.</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -7196,8 +7324,8 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>174</v>
@@ -7209,11 +7337,11 @@
         <v>301</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>RM.3.144</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>RM.3.144: Periodically perform risk assessments to identify and prioritize risks according to the defined risk categories, risk sources, and risk measurement criteria.</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -7225,8 +7353,8 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>174</v>
@@ -7238,11 +7366,11 @@
         <v>302</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>RM.3.146</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>RM.3.146: Develop and implement risk mitigation plans.</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -7254,8 +7382,8 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>174</v>
@@ -7267,11 +7395,11 @@
         <v>303</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>RM.3.147</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>RM.3.147: Manage non-vendor-supported products (e.g., end of life) separately and restrict as necessary to reduce risk.</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -7283,8 +7411,8 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>177</v>
@@ -7296,11 +7424,11 @@
         <v>304</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CA.3.161</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CA.3.161: Monitor security controls on an ongoing basis to ensure the continued effectiveness of the controls.</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -7312,8 +7440,8 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>177</v>
@@ -7325,11 +7453,11 @@
         <v>305</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>CA.3.162</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>CA.3.162: Employ a security assessment of enterprise software that has been developed internally, for internal use, and that has been organizationally defined as an area of risk.</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -7341,8 +7469,8 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>264</v>
@@ -7354,11 +7482,11 @@
         <v>306</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SA.3.169</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SA.3.169: Receive and respond to cyber threat intelligence from information sharing forums and sources and communicate to stakeholders.</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -7370,8 +7498,8 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>180</v>
@@ -7383,11 +7511,11 @@
         <v>307</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SC.3.177</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SC.3.177: Employ FIPS-validated cryptography when used to protect the confidentiality of CUI.</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -7399,8 +7527,8 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>180</v>
@@ -7412,11 +7540,11 @@
         <v>308</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SC.3.180</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SC.3.180: Employ architectural designs, software development techniques, and systems engineering principles that promote effective information security within organizational systems.</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -7428,8 +7556,8 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>180</v>
@@ -7441,11 +7569,11 @@
         <v>309</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SC.3.181</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SC.3.181: Separate user functionality from system management functionality.</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -7457,8 +7585,8 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>180</v>
@@ -7470,11 +7598,11 @@
         <v>310</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SC.3.182</v>
       </c>
       <c r="F62" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SC.3.182: Prevent unauthorized and unintended information transfer via shared system resources.</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -7486,8 +7614,8 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>180</v>
@@ -7499,11 +7627,11 @@
         <v>311</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SC.3.183</v>
       </c>
       <c r="F63" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SC.3.183: Deny network communications traffic by default and allow network communications traffic by exception (i.e., deny all, permit by exception).</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -7515,8 +7643,8 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>180</v>
@@ -7528,11 +7656,11 @@
         <v>312</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SC.3.184</v>
       </c>
       <c r="F64" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SC.3.184: Prevent remote devices from simultaneously establishing non-remote connections with organizational systems and communicating via some other connection to resources in external networks (i.e., split tunneling).</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -7544,8 +7672,8 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>180</v>
@@ -7557,11 +7685,11 @@
         <v>313</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SC.3.185</v>
       </c>
       <c r="F65" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SC.3.185: Implement cryptographic mechanisms to prevent unauthorized disclosure of CUI during transmission unless otherwise protected by alternative physical safeguards.</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -7573,8 +7701,8 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="1"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>180</v>
@@ -7586,11 +7714,11 @@
         <v>314</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>SC.3.186</v>
       </c>
       <c r="F66" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SC.3.186: Terminate network connections associated with communications sessions at the end of the sessions or after a defined period of inactivity.</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -7602,8 +7730,8 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" ref="A67:A76" si="7">"CMMC v1.02 Maturity Level 3"</f>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>180</v>
@@ -7615,11 +7743,11 @@
         <v>315</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f t="shared" ref="E67:E76" si="7">D67</f>
+        <f t="shared" ref="E67:E76" si="8">D67</f>
         <v>SC.3.187</v>
       </c>
       <c r="F67" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SC.3.187: Establish and manage cryptographic keys for cryptography employed in organizational systems.</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -7631,8 +7759,8 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="7"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>180</v>
@@ -7644,11 +7772,11 @@
         <v>316</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>SC.3.188</v>
       </c>
       <c r="F68" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SC.3.188: Control and monitor the use of mobile code.</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -7660,8 +7788,8 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="7"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>180</v>
@@ -7673,11 +7801,11 @@
         <v>317</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>SC.3.189</v>
       </c>
       <c r="F69" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SC.3.189: Control and monitor the use of Voice over Internet Protocol (VoIP) technologies.</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -7689,8 +7817,8 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="7"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>180</v>
@@ -7702,11 +7830,11 @@
         <v>318</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>SC.3.190</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SC.3.190: Protect the authenticity of communications sessions.</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -7718,8 +7846,8 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="7"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>180</v>
@@ -7731,11 +7859,11 @@
         <v>319</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>SC.3.191</v>
       </c>
       <c r="F71" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SC.3.191: Protect the confidentiality of CUI at rest.</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -7747,8 +7875,8 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="7"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>180</v>
@@ -7760,11 +7888,11 @@
         <v>320</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>SC.3.192</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SC.3.192: Implement Domain Name System (DNS) filtering services.</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -7776,8 +7904,8 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="7"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>180</v>
@@ -7789,11 +7917,11 @@
         <v>321</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>SC.3.193</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SC.3.193: Implement a policy restricting the publication of CUI on externally owned, publicly accessible websites (e.g., forums, LinkedIn, Facebook, Twitter).</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -7805,8 +7933,8 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="7"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>182</v>
@@ -7818,11 +7946,11 @@
         <v>322</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>SI.3.218</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SI.3.218: Employ spam protection mechanisms at information system access entry and exit points.</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -7834,8 +7962,8 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="7"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>182</v>
@@ -7847,11 +7975,11 @@
         <v>323</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>SI.3.219</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SI.3.219: Implement email forgery protections.</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -7863,8 +7991,8 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>CMMC v1.02 Maturity Level 2</v>
+        <f t="shared" si="7"/>
+        <v>CMMC v1.02 Maturity Level 3</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>182</v>
@@ -7876,11 +8004,11 @@
         <v>324</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>SI.3.220</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>SI.3.220: Utilize sandboxing to detect or block potentially malicious email.</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -7899,26 +8027,1408 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95FA5B7-9436-324E-80C2-1BF95F9E19C1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="88.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17">
+      <c r="A2" s="1" t="str">
+        <f>"CMMC v1.02 Maturity Level 4"</f>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>_xlfn.CONCAT("MC01: Improve ",I2," activities")</f>
+        <v>MC01: Improve Access Control activities</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>_xlfn.CONCAT(J2,".4.996")</f>
+        <v>AC.4.996</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>D2</f>
+        <v>AC.4.996</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>_xlfn.CONCAT(D2,": ", G2)</f>
+        <v>AC.4.996: Review and measure Access Control activities for effectiveness.</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>_xlfn.CONCAT("Review and measure ",I2," activities for effectiveness.")</f>
+        <v>Review and measure Access Control activities for effectiveness.</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17">
+      <c r="A3" s="1" t="str">
+        <f t="shared" ref="A3:A18" si="0">"CMMC v1.02 Maturity Level 4"</f>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C18" si="1">_xlfn.CONCAT("MC01: Improve ",I3," activities")</f>
+        <v>MC01: Improve Asset Management activities</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D18" si="2">_xlfn.CONCAT(J3,".4.996")</f>
+        <v>AM.4.996</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E18" si="3">D3</f>
+        <v>AM.4.996</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F18" si="4">_xlfn.CONCAT(D3,": ", G3)</f>
+        <v>AM.4.996: Review and measure Asset Management activities for effectiveness.</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" ref="G3:G18" si="5">_xlfn.CONCAT("Review and measure ",I3," activities for effectiveness.")</f>
+        <v>Review and measure Asset Management activities for effectiveness.</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Audit and Accountability activities</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AU.4.996</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AU.4.996</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>AU.4.996: Review and measure Audit and Accountability activities for effectiveness.</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Audit and Accountability activities for effectiveness.</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Awareness and Training activities</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AT.4.996</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AT.4.996</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>AT.4.996: Review and measure Awareness and Training activities for effectiveness.</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Awareness and Training activities for effectiveness.</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Configuration Management activities</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>CM.4.996</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CM.4.996</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>CM.4.996: Review and measure Configuration Management activities for effectiveness.</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Configuration Management activities for effectiveness.</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Identification and Authentication activities</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IA.4.996</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IA.4.996</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>IA.4.996: Review and measure Identification and Authentication activities for effectiveness.</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Identification and Authentication activities for effectiveness.</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Incident Response activities</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IR.4.996</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IR.4.996</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>IR.4.996: Review and measure Incident Response activities for effectiveness.</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Incident Response activities for effectiveness.</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Maintenance activities</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MA.4.996</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MA.4.996</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>MA.4.996: Review and measure Maintenance activities for effectiveness.</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Maintenance activities for effectiveness.</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Media Protection activities</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MP.4.996</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MP.4.996</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>MP.4.996: Review and measure Media Protection activities for effectiveness.</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Media Protection activities for effectiveness.</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Personnel Security activities</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>PS.4.996</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>PS.4.996</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PS.4.996: Review and measure Personnel Security activities for effectiveness.</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Personnel Security activities for effectiveness.</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Physical Protection activities</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>PE.4.996</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>PE.4.996</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PE.4.996: Review and measure Physical Protection activities for effectiveness.</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Physical Protection activities for effectiveness.</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Recovery activities</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>RE.4.996</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>RE.4.996</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>RE.4.996: Review and measure Recovery activities for effectiveness.</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Recovery activities for effectiveness.</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Risk Management activities</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>RM.4.996</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>RM.4.996</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>RM.4.996: Review and measure Risk Management activities for effectiveness.</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Risk Management activities for effectiveness.</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Security Assessment activities</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>CA.4.996</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CA.4.996</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>CA.4.996: Review and measure Security Assessment activities for effectiveness.</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Security Assessment activities for effectiveness.</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Situational Awareness activities</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SA.4.996</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SA.4.996</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SA.4.996: Review and measure Situational Awareness activities for effectiveness.</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Situational Awareness activities for effectiveness.</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve System and Communications Protection activities</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SC.4.996</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SC.4.996</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SC.4.996: Review and measure System and Communications Protection activities for effectiveness.</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure System and Communications Protection activities for effectiveness.</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve System and Information Integrity activities</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SI.4.996</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SI.4.996</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SI.4.996: Review and measure System and Information Integrity activities for effectiveness.</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure System and Information Integrity activities for effectiveness.</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E78D9C1-42B5-894D-AC78-ACB22999BE15}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="123.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="115.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="str">
+        <f>"CMMC v1.02 Maturity Level 5"</f>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>_xlfn.CONCAT("MC01: Improve ",I2," activities")</f>
+        <v>MC01: Improve Access Control activities</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>_xlfn.CONCAT(J2,".5.995")</f>
+        <v>AC.5.995</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>D2</f>
+        <v>AC.5.995</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>_xlfn.CONCAT(D2,": ", G2)</f>
+        <v>AC.5.995: Standardize and optimize a documented approach for Access Control across all applicable organizational units.</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>_xlfn.CONCAT("Standardize and optimize a documented approach for ",I2," across all applicable organizational units.")</f>
+        <v>Standardize and optimize a documented approach for Access Control across all applicable organizational units.</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="str">
+        <f t="shared" ref="A3:A18" si="0">"CMMC v1.02 Maturity Level 5"</f>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C18" si="1">_xlfn.CONCAT("MC01: Improve ",I3," activities")</f>
+        <v>MC01: Improve Asset Management activities</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D18" si="2">_xlfn.CONCAT(J3,".5.995")</f>
+        <v>AM.5.995</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E18" si="3">D3</f>
+        <v>AM.5.995</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F18" si="4">_xlfn.CONCAT(D3,": ", G3)</f>
+        <v>AM.5.995: Standardize and optimize a documented approach for Asset Management across all applicable organizational units.</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G18" si="5">_xlfn.CONCAT("Standardize and optimize a documented approach for ",I3," across all applicable organizational units.")</f>
+        <v>Standardize and optimize a documented approach for Asset Management across all applicable organizational units.</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Audit and Accountability activities</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AU.5.995</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AU.5.995</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>AU.5.995: Standardize and optimize a documented approach for Audit and Accountability across all applicable organizational units.</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Standardize and optimize a documented approach for Audit and Accountability across all applicable organizational units.</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Awareness and Training activities</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AT.5.995</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AT.5.995</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>AT.5.995: Standardize and optimize a documented approach for Awareness and Training across all applicable organizational units.</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Standardize and optimize a documented approach for Awareness and Training across all applicable organizational units.</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Configuration Management activities</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>CM.5.995</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CM.5.995</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>CM.5.995: Standardize and optimize a documented approach for Configuration Management across all applicable organizational units.</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Standardize and optimize a documented approach for Configuration Management across all applicable organizational units.</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Identification and Authentication activities</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IA.5.995</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IA.5.995</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>IA.5.995: Standardize and optimize a documented approach for Identification and Authentication across all applicable organizational units.</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Standardize and optimize a documented approach for Identification and Authentication across all applicable organizational units.</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Incident Response activities</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IR.5.995</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IR.5.995</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>IR.5.995: Standardize and optimize a documented approach for Incident Response across all applicable organizational units.</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Standardize and optimize a documented approach for Incident Response across all applicable organizational units.</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Maintenance activities</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MA.5.995</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MA.5.995</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>MA.5.995: Standardize and optimize a documented approach for Maintenance across all applicable organizational units.</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Standardize and optimize a documented approach for Maintenance across all applicable organizational units.</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Media Protection activities</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MP.5.995</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MP.5.995</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>MP.5.995: Standardize and optimize a documented approach for Media Protection across all applicable organizational units.</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Standardize and optimize a documented approach for Media Protection across all applicable organizational units.</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Personnel Security activities</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>PS.5.995</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>PS.5.995</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PS.5.995: Standardize and optimize a documented approach for Personnel Security across all applicable organizational units.</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Standardize and optimize a documented approach for Personnel Security across all applicable organizational units.</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Physical Protection activities</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>PE.5.995</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>PE.5.995</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PE.5.995: Standardize and optimize a documented approach for Physical Protection across all applicable organizational units.</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Standardize and optimize a documented approach for Physical Protection across all applicable organizational units.</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Recovery activities</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>RE.5.995</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>RE.5.995</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>RE.5.995: Standardize and optimize a documented approach for Recovery across all applicable organizational units.</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Standardize and optimize a documented approach for Recovery across all applicable organizational units.</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Risk Management activities</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>RM.5.995</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>RM.5.995</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>RM.5.995: Standardize and optimize a documented approach for Risk Management across all applicable organizational units.</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Standardize and optimize a documented approach for Risk Management across all applicable organizational units.</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Security Assessment activities</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>CA.5.995</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CA.5.995</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>CA.5.995: Standardize and optimize a documented approach for Security Assessment across all applicable organizational units.</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Standardize and optimize a documented approach for Security Assessment across all applicable organizational units.</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Situational Awareness activities</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SA.5.995</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SA.5.995</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SA.5.995: Standardize and optimize a documented approach for Situational Awareness across all applicable organizational units.</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Standardize and optimize a documented approach for Situational Awareness across all applicable organizational units.</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve System and Communications Protection activities</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SC.5.995</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SC.5.995</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SC.5.995: Standardize and optimize a documented approach for System and Communications Protection across all applicable organizational units.</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Standardize and optimize a documented approach for System and Communications Protection across all applicable organizational units.</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve System and Information Integrity activities</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SI.5.995</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SI.5.995</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SI.5.995: Standardize and optimize a documented approach for System and Information Integrity across all applicable organizational units.</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Standardize and optimize a documented approach for System and Information Integrity across all applicable organizational units.</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Control Frameworks/CMMC v1.02/CMMC v1.02 (All Maturity Levels).xlsx
+++ b/Control Frameworks/CMMC v1.02/CMMC v1.02 (All Maturity Levels).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsokol/Documents/git/simplerisk/import-content/Control Frameworks/CMMC v1.02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8C1BCF-E1D7-2D40-85E0-FF31D762A9A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF014AC-A60D-4C4A-B9E3-45B601D318ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20420" yWindow="460" windowWidth="30340" windowHeight="16940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7820" yWindow="460" windowWidth="30340" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CMMC v1.02 Maturity Level 1" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="544">
   <si>
     <t>Framework Name</t>
   </si>
@@ -1790,12 +1790,301 @@
     <t>• CERT RMM v1.2 GG3.GP1
 • CERT RMM v1.2 GG3.GP18</t>
   </si>
+  <si>
+    <t>CMMC v1.02 Maturity Level 1</t>
+  </si>
+  <si>
+    <t>AC.1.001</t>
+  </si>
+  <si>
+    <t>AC.1.001: Limit information system access to authorized users, processes acting on behalf of authorized users, or devices (including other information systems).</t>
+  </si>
+  <si>
+    <t>Limit information system access to authorized users, processes acting on behalf of authorized users, or devices (including other information systems).</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 b.1.i
+• NIST SP 800-171 Rev 1 3.1.1
+• CIS Controls v7.1 1.4, 1.6, 5.1, 14.6, 15.10, 16.8, 16.9, 16.11
+• NIST CSF v1.1 PR.AC-1, PR.AC-3, PR.AC-4, PR.AC-6, PR.PT-3, PR.PT-4
+• CERT RMM v1.2 TM:SG4.SP1
+• NIST SP 800-53 Rev 4 AC-2, AC-3, AC-17
+• AU ACSC Essential Eight</t>
+  </si>
+  <si>
+    <t>AC.1.002</t>
+  </si>
+  <si>
+    <t>AC.1.002: Limit information system access to the types of transactions and functions that authorized users are permitted to execute.</t>
+  </si>
+  <si>
+    <t>Limit information system access to the types of transactions and functions that authorized users are permitted to execute.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 b.1.ii
+• NIST SP 800-171 Rev 1 3.1.2
+• CIS Controls v7.1 1.4, 1.6, 5.1, 8.5, 14.6, 15.10, 16.8, 16.9, 16.11
+• NIST CSF v1.1 PR.AC-1, PR.AC-3, PR.AC-4, PR.AC-6, PR.PT-3, PR.PT-4
+• CERT RMM v1.2 TM:SG4.SP1
+• NIST SP 800-53 Rev 4 AC-2, AC-3, AC-17</t>
+  </si>
+  <si>
+    <t>AC.1.003</t>
+  </si>
+  <si>
+    <t>AC.1.003: Verify and control/limit connections to and use of external information systems.</t>
+  </si>
+  <si>
+    <t>Verify and control/limit connections to and use of external information systems.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 b.1.iii
+• NIST SP 800-171 Rev 1 3.1.20
+• CIS Controls v7.1 12.1, 12.4
+• NIST CSF v1.1 ID.AM-4, PR.AC-3
+• CERT RMM v1.2 EXD:SG3.SP1
+• NIST SP 800-53 Rev 4 AC-20, AC-20(1)</t>
+  </si>
+  <si>
+    <t>AC.1.004</t>
+  </si>
+  <si>
+    <t>AC.1.004: Control information posted or processed on publicly accessible information systems.</t>
+  </si>
+  <si>
+    <t>Control information posted or processed on publicly accessible information systems.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 b.1.iv
+• NIST SP 800-171 Rev 1 3.1.22
+• NIST SP 800-53 Rev 4 AC-22</t>
+  </si>
+  <si>
+    <t>IA.1.076</t>
+  </si>
+  <si>
+    <t>IA.1.076: Identify information system users, processes acting on behalf of users, or devices.</t>
+  </si>
+  <si>
+    <t>Identify information system users, processes acting on behalf of users, or devices.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 b.1.v
+• NIST SP 800-171 Rev 1 3.5.1
+• CIS Controls v7.1 4.2, 4.3, 16.8, 16.9
+• NIST CSF v1.1 PR.AC-1, PR.AC-6, PR.AC-7
+• CERT RMM v1.2 ID:SG1.SP1
+• NIST SP 800-53 Rev 4 IA-2, IA-3, IA-5</t>
+  </si>
+  <si>
+    <t>IA.1.077</t>
+  </si>
+  <si>
+    <t>IA.1.077: Authenticate (or verify) the identities of those users, processes, or devices, as a prerequisite to allowing access to organizational information systems.</t>
+  </si>
+  <si>
+    <t>Authenticate (or verify) the identities of those users, processes, or devices, as a prerequisite to allowing access to organizational information systems.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 b.1.vi
+• NIST SP 800-171 Rev 1 3.5.2
+• CIS Controls v7.1 4.2, 4.3, 16.8, 16.9
+• NIST CSF v1.1 PR.AC-1, PR.AC-6, PR.AC-7
+• CERT RMM v1.2 TM:SG4.SP1
+• NIST SP 800-53 Rev 4 IA-2, IA-3, IA-5
+• UK NCSC Cyber Essentials</t>
+  </si>
+  <si>
+    <t>C024: Sanitize media</t>
+  </si>
+  <si>
+    <t>MP.1.118</t>
+  </si>
+  <si>
+    <t>MP.1.118: Sanitize or destroy information system media containing Federal Contract Information before disposal or release for reuse.</t>
+  </si>
+  <si>
+    <t>Sanitize or destroy information system media containing Federal Contract Information before disposal or release for reuse.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 b.1.vii
+• NIST SP 800-171 Rev 1 3.8.3
+• NIST CSF v1.1 PR.DS-3
+• CERT RMM v1.2 KIM:SG4.SP3
+• NIST SP 800-53 Rev 4 MP-6</t>
+  </si>
+  <si>
+    <t>PE.1.131</t>
+  </si>
+  <si>
+    <t>PE.1.131: Limit physical access to organizational information systems, equipment, and the respective operating environments to authorized individuals.</t>
+  </si>
+  <si>
+    <t>Limit physical access to organizational information systems, equipment, and the respective operating environments to authorized individuals.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 b.1.viii
+• NIST SP 800-171 Rev 1 3.10.1
+• NIST CSF v1.1 PR.AC-2
+• CERT RMM v1.2 KIM:SG4.SP2
+• NIST SP 800-53 Rev 4 PE-2</t>
+  </si>
+  <si>
+    <t>PE.1.132</t>
+  </si>
+  <si>
+    <t>PE.1.132: Escort visitors and monitor visitor activity.</t>
+  </si>
+  <si>
+    <t>Escort visitors and monitor visitor activity.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 Partial b.1.ix 
+• NIST SP 800-171 Rev 1 3.10.3
+• CERT RMM v1.2 AM:SG1.SP1
+• NIST SP 800-53 Rev 4 PE-3</t>
+  </si>
+  <si>
+    <t>PE.1.133</t>
+  </si>
+  <si>
+    <t>PE.1.133: Maintain audit logs of physical access.</t>
+  </si>
+  <si>
+    <t>Maintain audit logs of physical access.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 Partial b.1.ix 
+• NIST SP 800-171 Rev 1 3.10.4
+• NIST SP 800-53 Rev 4 PE-3</t>
+  </si>
+  <si>
+    <t>PE.1.134</t>
+  </si>
+  <si>
+    <t>PE.1.134: Control and manage physical access devices.</t>
+  </si>
+  <si>
+    <t>Control and manage physical access devices.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 Partial b.1.ix 
+• NIST SP 800-171 Rev 1 3.10.5
+• CERT RMM v1.2 KIM:SG4.SP2
+• NIST SP 800-53 Rev 4 PE-3</t>
+  </si>
+  <si>
+    <t>SC.1.175</t>
+  </si>
+  <si>
+    <t>SC.1.175: Monitor, control, and protect organizational communications (i.e., information transmitted or received by organizational information systems) at the external boundaries and key internal boundaries of the information systems.</t>
+  </si>
+  <si>
+    <t>Monitor, control, and protect organizational communications (i.e., information transmitted or received by organizational information systems) at the external boundaries and key internal boundaries of the information systems.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 b.1.x
+• NIST SP 800-171 Rev 1 3.13.1
+• NIST CSF v1.1 PR.PT-4
+• NIST SP 800-53 Rev 4 SC-7
+• UK NCSC Cyber Essentials</t>
+  </si>
+  <si>
+    <t>SC.1.176</t>
+  </si>
+  <si>
+    <t>SC.1.176: Implement subnetworks for publicly accessible system components that are physically or logically separated from internal networks.</t>
+  </si>
+  <si>
+    <t>Implement subnetworks for publicly accessible system components that are physically or logically separated from internal networks.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 b.1.xi
+• NIST SP 800-171 Rev 1 3.13.5
+• CIS Controls v7.1 14.1
+• NIST CSF v1.1 PR.AC-5
+• NIST SP 800-53 Rev 4 SC-7
+• UK NCSC Cyber Essentials</t>
+  </si>
+  <si>
+    <t>SI.1.210</t>
+  </si>
+  <si>
+    <t>SI.1.210: Identify, report, and correct information and information system flaws in a timely manner.</t>
+  </si>
+  <si>
+    <t>Identify, report, and correct information and information system flaws in a timely manner.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 b.1.xii
+• NIST SP 800-171 Rev 1 3.14.1
+• NIST CSF v1.1 RS.CO-2, RS.MI-3
+• CERT RMM v1.2 VAR:SG2.SP2
+• NIST SP 800-53 Rev 4 SI-2
+• UK NCSC Cyber Essentials
+• AU ACSC Essential Eight</t>
+  </si>
+  <si>
+    <t>C041: Identify malicious content</t>
+  </si>
+  <si>
+    <t>SI.1.211</t>
+  </si>
+  <si>
+    <t>SI.1.211: Provide protection from malicious code at appropriate locations within organizational information systems.</t>
+  </si>
+  <si>
+    <t>Provide protection from malicious code at appropriate locations within organizational information systems.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 b.1.xiii
+• NIST SP 800-171 Rev 1 3.14.2
+• CIS Controls v7.1 8.1
+• NIST CSF v1.1 DE.CM-4
+• CERT RMM v1.2 VAR:SG3.SP1
+• NIST SP 800-53 Rev 4 SI-3
+• AU ACSC Essential Eight</t>
+  </si>
+  <si>
+    <t>SI.1.212</t>
+  </si>
+  <si>
+    <t>SI.1.212: Update malicious code protection mechanisms when new releases are available.</t>
+  </si>
+  <si>
+    <t>Update malicious code protection mechanisms when new releases are available.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 b.1.xiv
+• NIST SP 800-171 Rev 1 3.14.4
+• CIS Controls v7.1 8.2
+• NIST CSF v1.1 DE.CM-4
+• CERT RMM v1.2 VAR:SG3.SP1
+• NIST SP 800-53 Rev 4 SI-3</t>
+  </si>
+  <si>
+    <t>SI.1.213</t>
+  </si>
+  <si>
+    <t>SI.1.213: Perform periodic scans of the information system and real-time scans of files from external sources as files are downloaded, opened, or executed.</t>
+  </si>
+  <si>
+    <t>Perform periodic scans of the information system and real-time scans of files from external sources as files are downloaded, opened, or executed.</t>
+  </si>
+  <si>
+    <t>• FAR Clause 52.204-21 b.1.xv
+• NIST SP 800-171 Rev 1 3.14.5
+• CIS Controls v7.1 8.4, 8.7
+• NIST CSF v1.1 DE.CM-4
+• CERT RMM v1.2 VAR:SG3.SP1
+• NIST SP 800-53 Rev 4 SI-3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1940,6 +2229,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2283,12 +2578,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2644,14 +2940,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1181B36C-6D61-4E43-8411-924D05A97DEE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="185.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="177" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="234.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5640,9 +6413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection sqref="A1:J19"/>
-    </sheetView>
+    <sheetView zoomScale="94" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -8733,7 +9504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E78D9C1-42B5-894D-AC78-ACB22999BE15}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>

--- a/Control Frameworks/CMMC v1.02/CMMC v1.02 (All Maturity Levels).xlsx
+++ b/Control Frameworks/CMMC v1.02/CMMC v1.02 (All Maturity Levels).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsokol/Documents/git/simplerisk/import-content/Control Frameworks/CMMC v1.02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF014AC-A60D-4C4A-B9E3-45B601D318ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE72C90-D8E0-D540-B251-0CDDB3E5BE0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="460" windowWidth="30340" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20260" yWindow="460" windowWidth="30340" windowHeight="16940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CMMC v1.02 Maturity Level 1" sheetId="3" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="CMMC v1.02 Maturity Level 4" sheetId="4" r:id="rId4"/>
     <sheet name="CMMC v1.02 Maturity Level 5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="657">
   <si>
     <t>Framework Name</t>
   </si>
@@ -2078,6 +2078,410 @@
 • NIST CSF v1.1 DE.CM-4
 • CERT RMM v1.2 VAR:SG3.SP1
 • NIST SP 800-53 Rev 4 SI-3</t>
+  </si>
+  <si>
+    <t>C006: Manage asset inventory</t>
+  </si>
+  <si>
+    <t>C033: Manage supply chain risk</t>
+  </si>
+  <si>
+    <t>AC.4.023</t>
+  </si>
+  <si>
+    <t>AC.4.025</t>
+  </si>
+  <si>
+    <t>AC.4.032</t>
+  </si>
+  <si>
+    <t>AM.4.226</t>
+  </si>
+  <si>
+    <t>AU.4.053</t>
+  </si>
+  <si>
+    <t>AU.4.054</t>
+  </si>
+  <si>
+    <t>AT.4.059</t>
+  </si>
+  <si>
+    <t>AT.4.060</t>
+  </si>
+  <si>
+    <t>CM.4.073</t>
+  </si>
+  <si>
+    <t>IR.4.100</t>
+  </si>
+  <si>
+    <t>IR.4.101</t>
+  </si>
+  <si>
+    <t>RM.4.149</t>
+  </si>
+  <si>
+    <t>RM.4.150</t>
+  </si>
+  <si>
+    <t>RM.4.151</t>
+  </si>
+  <si>
+    <t>RM.4.148</t>
+  </si>
+  <si>
+    <t>CA.4.163</t>
+  </si>
+  <si>
+    <t>CA.4.164</t>
+  </si>
+  <si>
+    <t>CA.4.227</t>
+  </si>
+  <si>
+    <t>SA.4.171</t>
+  </si>
+  <si>
+    <t>SA.4.173</t>
+  </si>
+  <si>
+    <t>SC.5.198</t>
+  </si>
+  <si>
+    <t>SC.5.230</t>
+  </si>
+  <si>
+    <t>SC.4.199</t>
+  </si>
+  <si>
+    <t>SC.4.202</t>
+  </si>
+  <si>
+    <t>SC.4.229</t>
+  </si>
+  <si>
+    <t>SI.4.221</t>
+  </si>
+  <si>
+    <t>Control information flows between security domains on connected systems.</t>
+  </si>
+  <si>
+    <t>• CMMC modification of Draft NIST SP 800-171B 3.1.3e 
+• CIS Controls v7.1 12.1, 12.2, 13.1, 13.3, 14.1, 14.2, 14.5, 14.6, 14.7, 15.6, 15.10
+• NIST CSF v1.1 ID.AM-3, PR.AC-5, PR.DS-5, PR.PT-4, DE.AE-1
+• NIST SP 800-53 Rev 4 AC-4, AC-4(1), AC-4(6), AC-4(8), AC-4(12), AC-4(13), AC-4(15), AC-4(20)</t>
+  </si>
+  <si>
+    <t>Periodically review and update CUI program access permissions.</t>
+  </si>
+  <si>
+    <t>Restrict remote network access based on organizationally defined risk factors such as time of day, location of access, physical location, network connection state, and measured properties of the current user and role.</t>
+  </si>
+  <si>
+    <t>Employ a capability to discover and identify systems with specific component attributes (e.g., firmware level, OS type) within your inventory.</t>
+  </si>
+  <si>
+    <t>• CMMC modification of Draft NIST SP 800-171B 3.4.3e
+• CIS Controls v7.1 1.1, 1.2, 1.4, 1.5, 2.3, 2.4, 2.5
+• NIST CSF v1.1 ID.AM-1, ID.AM-2
+• CERT RMM v1.2 ADM:SG1.SP1
+• NIST SP 800-53 Rev 4 CM-8</t>
+  </si>
+  <si>
+    <t>Automate analysis of audit logs to identify and act on critical indicators (TTPs) and/or organizationally defined suspicious activity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• CMMC
+• CIS Controls v7.1 6.6
+• NIST CSF v1.1 DE.AE-3
+• NIST SP 800-53 Rev 4 SI-4(2) </t>
+  </si>
+  <si>
+    <t>Review audit information for broad activity in addition to per-machine activity.</t>
+  </si>
+  <si>
+    <t>• CMMC
+• NIST CSF v1.1 PR.PT-1
+• NIST SP 800-53 Rev 4 RA-5(6), RA-5(8), RA-5(10)</t>
+  </si>
+  <si>
+    <t>Provide awareness training focused on recognizing and responding to threats from social engineering, advanced persistent threat actors, breaches, and suspicious behaviors; update the training at least annually or when there are significant changes to the threat.</t>
+  </si>
+  <si>
+    <t>• Draft NIST SP 800-171B 3.2.1e
+• CIS Controls v7.1 17.1, 17.2, 17.4
+• NIST CSF v1.1 PR.AT-1, PR.AT-2, PR.AT-3, PR.AT-4, PR.AT-5
+• CERT RMM v1.2 OTA:SG2.SP1
+• NIST SP 800-53 Rev 4 AT-2</t>
+  </si>
+  <si>
+    <t>Include practical exercises in awareness training that are aligned with current threat scenarios and provide feedback to individuals involved in the training.</t>
+  </si>
+  <si>
+    <t>• CMMC modification of Draft NIST SP 800-171B 3.2.2e
+• CIS Controls v7.1 17.1, 17.2, 17.4
+• NIST CSF v1.1 PR.AT-1, PR.AT-2, PR.AT-3, PR.AT-4, PR.AT-5
+• CERT RMM v1.2 OTA:SG3.SP1, OTA:SG3.SP2
+• NIST SP 800-53 Rev 4 AT-2(1)</t>
+  </si>
+  <si>
+    <t>Employ application whitelisting and an application vetting process for systems identified by the organization.</t>
+  </si>
+  <si>
+    <t>• CMMC modification of NIST SP 800-171 3.4.8
+• CIS Controls v7.1 2.1, 2.2, 2.6, 2.7, 2.8, 2.9
+• NIST CSF v1.1 PR.PT-3
+• CERT RMM v1.2 TM:SG2.SP2
+• NIST SP 800-53 Rev 4 CM-7(4), CM-7(5)</t>
+  </si>
+  <si>
+    <t>Use knowledge of attacker tactics, techniques, and procedures in incident response planning and execution.</t>
+  </si>
+  <si>
+    <t>Establish and maintain a security operations center capability that facilitates a 24/7 response capability.</t>
+  </si>
+  <si>
+    <t>• CMMC modification of Draft NIST SP 800-171B 3.6.1e</t>
+  </si>
+  <si>
+    <t>Catalog and periodically update threat profiles and adversary TTPs.</t>
+  </si>
+  <si>
+    <t>• CMMC
+• NIST CSF v1.1 DE.AE-2
+• CERT RMM v1.2 VAR:SG2.SP1</t>
+  </si>
+  <si>
+    <t>Employ threat intelligence to inform the development of the system and security architectures, selection of security solutions, monitoring, threat hunting, and response and recovery activities.</t>
+  </si>
+  <si>
+    <t>• Draft NIST SP 800-171B 3.11.1e
+• NIST CSF v1.1 ID.RA-2, ID.RA-3</t>
+  </si>
+  <si>
+    <t>Perform scans for unauthorized ports available across perimeter network boundaries over the organization's Internet network boundaries and other organizationally defined boundaries.</t>
+  </si>
+  <si>
+    <t>• CIS Controls v7.1 12.2
+• NIST CSF v1.1 DE.CM-7</t>
+  </si>
+  <si>
+    <t>Develop and update as required, a plan for managing supply chain risks associated with the IT supply chain.</t>
+  </si>
+  <si>
+    <t>• CMMC modification of Draft NIST SP 800-171B 3.11.7e
+• NIST CSF v1.1 ID.SC-1, ID.SC-2
+• CERT RMM v1.2 EC:SG3.SP1, EC:SG3.SP2
+• NIST SP 800-53 Rev 4 SA-12</t>
+  </si>
+  <si>
+    <t>Create, maintain, and leverage a security strategy and roadmap for organizational cybersecurity improvement.</t>
+  </si>
+  <si>
+    <t>• NIST CSF v1.1 ID.RM-1, RS.IM-1, RS.IM-2, RC.IM-1, and RC.IM-2
+• NIST SP 800-53 Rev 4 PL-1</t>
+  </si>
+  <si>
+    <t>Conduct penetration testing periodically, leveraging automated scanning tools and ad hoc tests using human experts.</t>
+  </si>
+  <si>
+    <t>• CMMC modification of Draft NIST SP 800-171B 3.12.1e
+• CIS Controls v7.1 20.2
+• NIST SP 800-53 Rev 4 CA-8</t>
+  </si>
+  <si>
+    <t>Periodically perform red teaming against organizational assets in order to validate defensive capabilities.</t>
+  </si>
+  <si>
+    <t>• CMMC
+• CIS Controls v7.1 20.3
+• NIST SP 800-53 Rev 4 CA-8(2)</t>
+  </si>
+  <si>
+    <t>Establish and maintain a cyber threat hunting capability to search for indicators of compromise in organizational systems and detect, track, and disrupt threats that evade existing controls.</t>
+  </si>
+  <si>
+    <t>• Draft NIST SP 800-171B 3.11.2e
+• NIST CSF v1.1 DE.CM-1, DE.CM-2, DE.CM-3, DE.CM-4, DE.CM-5, DE.CM-6, DE.CM.7, DE.CM-8
+• NIST SP 800-53 Rev 4 PM-16</t>
+  </si>
+  <si>
+    <t>Design network and system security capabilities to leverage, integrate, and share indicators of compromise.</t>
+  </si>
+  <si>
+    <t>• CMMC
+• NIST SP 800-53 Rev 4 SI-4(24)</t>
+  </si>
+  <si>
+    <t>Configure monitoring systems to record packets passing through the organization's Internet network boundaries and other organizationally defined boundaries.</t>
+  </si>
+  <si>
+    <t>• CIS Controls v7.1 12.5</t>
+  </si>
+  <si>
+    <t>Enforce port and protocol compliance.</t>
+  </si>
+  <si>
+    <t>• CMMC
+• CIS Controls v7.1 9.2
+• NIST 800-53 Rev 4 SC-7(17)</t>
+  </si>
+  <si>
+    <t>Utilize threat intelligence to proactively block DNS requests from reaching malicious domains.</t>
+  </si>
+  <si>
+    <t>Employ mechanisms to analyze executable code and scripts (e.g., sandbox) traversing Internet network boundaries or other organizationally defined boundaries.</t>
+  </si>
+  <si>
+    <t>• CMMC
+• NIST SP 800-53 Rev 4 SC-44</t>
+  </si>
+  <si>
+    <t>Utilize a URL categorization service and implement techniques to enforce URL filtering of websites that are not approved by the organization.</t>
+  </si>
+  <si>
+    <t>• CMMC
+• CIS Controls v7.1 7.4</t>
+  </si>
+  <si>
+    <t>Use threat indicator information relevant to the information and systems being protected and effective mitigations obtained from external organizations to inform intrusion detection and threat hunting.</t>
+  </si>
+  <si>
+    <t>• Draft NIST SP 800-171B 3.14.6e
+• NIST CSF v1.1 ID.RA-2, ID.RA-3</t>
+  </si>
+  <si>
+    <t>C030: Manage information security continuity</t>
+  </si>
+  <si>
+    <t>AC.5.024</t>
+  </si>
+  <si>
+    <t>AU.5.055</t>
+  </si>
+  <si>
+    <t>CM.5.074</t>
+  </si>
+  <si>
+    <t>IR.5.106</t>
+  </si>
+  <si>
+    <t>IR.5.102</t>
+  </si>
+  <si>
+    <t>IR.5.108</t>
+  </si>
+  <si>
+    <t>IR.5.110</t>
+  </si>
+  <si>
+    <t>RE.5.140</t>
+  </si>
+  <si>
+    <t>RM.5.152</t>
+  </si>
+  <si>
+    <t>RM.5.155</t>
+  </si>
+  <si>
+    <t>SC.5.208</t>
+  </si>
+  <si>
+    <t>SI.5.222</t>
+  </si>
+  <si>
+    <t>SI.5.223</t>
+  </si>
+  <si>
+    <t>Identify and mitigate risk associated with unidentified wireless access points connected to the network.</t>
+  </si>
+  <si>
+    <t>• CMMC
+• CIS Controls v7.1 15.3
+• NIST CSF v1.1 PR.DS-5, DE.AE-1, DE.CM-7
+• NIST SP 800-53 Rev 4 SI-4(14)</t>
+  </si>
+  <si>
+    <t>Identify assets not reporting audit logs and assure appropriate organizationally defined systems are logging.</t>
+  </si>
+  <si>
+    <t>• CMMC
+• CIS Controls v7.1 6.2
+• NIST SP 800-53 Rev 4 AU-12</t>
+  </si>
+  <si>
+    <t>Verify the integrity and correctness of security critical or essential software as defined by the organization (e.g., roots of trust, formal verification, or cryptographic signatures).</t>
+  </si>
+  <si>
+    <t>• CMMC modification of Draft NIST SP 800-171B 3.14.1e
+• CIS Controls v7.1 2.10
+• NIST CSF v1.1 PR.DS-6, PR.DS-8, PR.IP-2
+• CERT RMM v1.2 TM:SG2.SP2
+• NIST SP 800-53 Rev 4  SI-7(6), SI-7(9), SI-7(10), SA-17</t>
+  </si>
+  <si>
+    <t>In response to cyber incidents, utilize forensic data gathering across impacted systems, ensuring the secure transfer and protection of forensic data.</t>
+  </si>
+  <si>
+    <t>• CMMC
+• NIST CSF v1.1 RS.AM-3
+• NIST SP 800-53 Rev 4 AU-12</t>
+  </si>
+  <si>
+    <t>Use a combination of manual and automated, real-time responses to anomalous activities that match incident patterns.</t>
+  </si>
+  <si>
+    <t>• CMMC
+• NIST SP 800-53 Rev 4 IR-4(1)</t>
+  </si>
+  <si>
+    <t>Establish and maintain a cyber incident response team that can investigate an issue physically or virtually at any location within 24 hours.</t>
+  </si>
+  <si>
+    <t>• CMMC modification of Draft NIST SP 800-171B 3.6.2e</t>
+  </si>
+  <si>
+    <t>Perform unannounced operational exercises to demonstrate technical and procedural responses.</t>
+  </si>
+  <si>
+    <t>• CMMC
+• CIS Controls v7.1 19.7</t>
+  </si>
+  <si>
+    <t>Ensure information processing facilities meet organizationally defined information security continuity, redundancy, and availability requirements.</t>
+  </si>
+  <si>
+    <t>• CMMC
+• NIST CSF v1.1 PR.IP-9
+• CERT RMM v1.2 RRM:SG1.SP2
+• NIST 800-53 Rev 4 CP-10</t>
+  </si>
+  <si>
+    <t>Utilize an exception process for non-whitelisted software that includes mitigation techniques.</t>
+  </si>
+  <si>
+    <t>Analyze the effectiveness of security solutions at least annually to address anticipated risk to the system and the organization based on current and accumulated threat intelligence.</t>
+  </si>
+  <si>
+    <t>• CMMC modification of Draft NIST SP 800-171B 3.11.5e
+• CERT RMM v1.2 RISK:SG6.SP1</t>
+  </si>
+  <si>
+    <t>Employ organizationally defined and tailored boundary protections in addition to commercially available solutions.</t>
+  </si>
+  <si>
+    <t>Analyze system behavior to detect and mitigate execution of normal system commands and scripts that indicate malicious actions.</t>
+  </si>
+  <si>
+    <t>Monitor individuals and system components on an ongoing basis for anomalous or suspicious behavior.</t>
+  </si>
+  <si>
+    <t>• Draft NIST SP 800-171B 3.14.2e
+• CIS Controls v7.1 13.3, 16.12, 16.13
+• NIST CSF v1.1 DE.CM-1, DE.CM-3
+• CERT RMM v1.2 MON:SG1.SP3
+• NIST SP 800-53 Rev 4 SI-4</t>
   </si>
 </sst>
 </file>
@@ -2581,10 +2985,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2942,7 +3346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1181B36C-6D61-4E43-8411-924D05A97DEE}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2957,470 +3361,470 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>543</v>
       </c>
     </row>
@@ -6413,7 +6817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -8798,20 +9204,1481 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95FA5B7-9436-324E-80C2-1BF95F9E19C1}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="230.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="221.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="245.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="str">
+        <f>"CMMC v1.02 Maturity Level 4"</f>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>_xlfn.CONCAT("MC01: Improve ",I2," activities")</f>
+        <v>MC01: Improve Access Control activities</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>_xlfn.CONCAT(J2,".4.996")</f>
+        <v>AC.4.996</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>D2</f>
+        <v>AC.4.996</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>_xlfn.CONCAT(D2,": ", G2)</f>
+        <v>AC.4.996: Review and measure Access Control activities for effectiveness.</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>_xlfn.CONCAT("Review and measure ",I2," activities for effectiveness.")</f>
+        <v>Review and measure Access Control activities for effectiveness.</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="str">
+        <f t="shared" ref="A3:A44" si="0">"CMMC v1.02 Maturity Level 4"</f>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f t="shared" ref="C3:C18" si="1">_xlfn.CONCAT("MC01: Improve ",I3," activities")</f>
+        <v>MC01: Improve Asset Management activities</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D18" si="2">_xlfn.CONCAT(J3,".4.996")</f>
+        <v>AM.4.996</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E44" si="3">D3</f>
+        <v>AM.4.996</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F44" si="4">_xlfn.CONCAT(D3,": ", G3)</f>
+        <v>AM.4.996: Review and measure Asset Management activities for effectiveness.</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G18" si="5">_xlfn.CONCAT("Review and measure ",I3," activities for effectiveness.")</f>
+        <v>Review and measure Asset Management activities for effectiveness.</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Audit and Accountability activities</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AU.4.996</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AU.4.996</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>AU.4.996: Review and measure Audit and Accountability activities for effectiveness.</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Audit and Accountability activities for effectiveness.</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Awareness and Training activities</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>AT.4.996</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AT.4.996</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>AT.4.996: Review and measure Awareness and Training activities for effectiveness.</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Awareness and Training activities for effectiveness.</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Configuration Management activities</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>CM.4.996</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CM.4.996</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>CM.4.996: Review and measure Configuration Management activities for effectiveness.</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Configuration Management activities for effectiveness.</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Identification and Authentication activities</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IA.4.996</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IA.4.996</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>IA.4.996: Review and measure Identification and Authentication activities for effectiveness.</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Identification and Authentication activities for effectiveness.</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Incident Response activities</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>IR.4.996</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IR.4.996</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>IR.4.996: Review and measure Incident Response activities for effectiveness.</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Incident Response activities for effectiveness.</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Maintenance activities</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MA.4.996</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MA.4.996</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>MA.4.996: Review and measure Maintenance activities for effectiveness.</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Maintenance activities for effectiveness.</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Media Protection activities</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MP.4.996</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>MP.4.996</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>MP.4.996: Review and measure Media Protection activities for effectiveness.</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Media Protection activities for effectiveness.</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Personnel Security activities</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>PS.4.996</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>PS.4.996</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PS.4.996: Review and measure Personnel Security activities for effectiveness.</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Personnel Security activities for effectiveness.</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Physical Protection activities</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>PE.4.996</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>PE.4.996</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>PE.4.996: Review and measure Physical Protection activities for effectiveness.</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Physical Protection activities for effectiveness.</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Recovery activities</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>RE.4.996</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>RE.4.996</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>RE.4.996: Review and measure Recovery activities for effectiveness.</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Recovery activities for effectiveness.</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Risk Management activities</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>RM.4.996</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>RM.4.996</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>RM.4.996: Review and measure Risk Management activities for effectiveness.</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Risk Management activities for effectiveness.</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Security Assessment activities</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>CA.4.996</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CA.4.996</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>CA.4.996: Review and measure Security Assessment activities for effectiveness.</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Security Assessment activities for effectiveness.</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve Situational Awareness activities</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SA.4.996</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SA.4.996</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SA.4.996: Review and measure Situational Awareness activities for effectiveness.</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure Situational Awareness activities for effectiveness.</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve System and Communications Protection activities</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SC.4.996</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SC.4.996</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SC.4.996: Review and measure System and Communications Protection activities for effectiveness.</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure System and Communications Protection activities for effectiveness.</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MC01: Improve System and Information Integrity activities</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>SI.4.996</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SI.4.996</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SI.4.996: Review and measure System and Information Integrity activities for effectiveness.</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Review and measure System and Information Integrity activities for effectiveness.</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AC.4.023</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>AC.4.023: Control information flows between security domains on connected systems.</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AC.4.025</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>AC.4.025: Periodically review and update CUI program access permissions.</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AC.4.032</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>AC.4.032: Restrict remote network access based on organizationally defined risk factors such as time of day, location of access, physical location, network connection state, and measured properties of the current user and role.</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AM.4.226</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>AM.4.226: Employ a capability to discover and identify systems with specific component attributes (e.g., firmware level, OS type) within your inventory.</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AU.4.053</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>AU.4.053: Automate analysis of audit logs to identify and act on critical indicators (TTPs) and/or organizationally defined suspicious activity.</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AU.4.054</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>AU.4.054: Review audit information for broad activity in addition to per-machine activity.</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AT.4.059</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>AT.4.059: Provide awareness training focused on recognizing and responding to threats from social engineering, advanced persistent threat actors, breaches, and suspicious behaviors; update the training at least annually or when there are significant changes to the threat.</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AT.4.060</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>AT.4.060: Include practical exercises in awareness training that are aligned with current threat scenarios and provide feedback to individuals involved in the training.</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CM.4.073</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>CM.4.073: Employ application whitelisting and an application vetting process for systems identified by the organization.</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IR.4.100</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>IR.4.100: Use knowledge of attacker tactics, techniques, and procedures in incident response planning and execution.</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IR.4.101</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>IR.4.101: Establish and maintain a security operations center capability that facilitates a 24/7 response capability.</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>RM.4.149</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>RM.4.149: Catalog and periodically update threat profiles and adversary TTPs.</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>RM.4.150</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>RM.4.150: Employ threat intelligence to inform the development of the system and security architectures, selection of security solutions, monitoring, threat hunting, and response and recovery activities.</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>RM.4.151</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>RM.4.151: Perform scans for unauthorized ports available across perimeter network boundaries over the organization's Internet network boundaries and other organizationally defined boundaries.</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>RM.4.148</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>RM.4.148: Develop and update as required, a plan for managing supply chain risks associated with the IT supply chain.</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CA.4.163</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>CA.4.163: Create, maintain, and leverage a security strategy and roadmap for organizational cybersecurity improvement.</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CA.4.164</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>CA.4.164: Conduct penetration testing periodically, leveraging automated scanning tools and ad hoc tests using human experts.</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CA.4.227</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>CA.4.227: Periodically perform red teaming against organizational assets in order to validate defensive capabilities.</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SA.4.171</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SA.4.171: Establish and maintain a cyber threat hunting capability to search for indicators of compromise in organizational systems and detect, track, and disrupt threats that evade existing controls.</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SA.4.173</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SA.4.173: Design network and system security capabilities to leverage, integrate, and share indicators of compromise.</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SC.5.198</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SC.5.198: Configure monitoring systems to record packets passing through the organization's Internet network boundaries and other organizationally defined boundaries.</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SC.5.230</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SC.5.230: Enforce port and protocol compliance.</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SC.4.199</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SC.4.199: Utilize threat intelligence to proactively block DNS requests from reaching malicious domains.</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SC.4.202</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SC.4.202: Employ mechanisms to analyze executable code and scripts (e.g., sandbox) traversing Internet network boundaries or other organizationally defined boundaries.</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SC.4.229</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SC.4.229: Utilize a URL categorization service and implement techniques to enforce URL filtering of websites that are not approved by the organization.</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SI.4.221</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>SI.4.221: Use threat indicator information relevant to the information and systems being protected and effective mitigations obtained from external organizations to inform intrusion detection and threat hunting.</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E78D9C1-42B5-894D-AC78-ACB22999BE15}">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="88.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="162.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="153" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="175" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -8848,710 +10715,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17">
-      <c r="A2" s="1" t="str">
-        <f>"CMMC v1.02 Maturity Level 4"</f>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>_xlfn.CONCAT("MC01: Improve ",I2," activities")</f>
-        <v>MC01: Improve Access Control activities</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>_xlfn.CONCAT(J2,".4.996")</f>
-        <v>AC.4.996</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f>D2</f>
-        <v>AC.4.996</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f>_xlfn.CONCAT(D2,": ", G2)</f>
-        <v>AC.4.996: Review and measure Access Control activities for effectiveness.</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <f>_xlfn.CONCAT("Review and measure ",I2," activities for effectiveness.")</f>
-        <v>Review and measure Access Control activities for effectiveness.</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17">
-      <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A18" si="0">"CMMC v1.02 Maturity Level 4"</f>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C18" si="1">_xlfn.CONCAT("MC01: Improve ",I3," activities")</f>
-        <v>MC01: Improve Asset Management activities</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D18" si="2">_xlfn.CONCAT(J3,".4.996")</f>
-        <v>AM.4.996</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E18" si="3">D3</f>
-        <v>AM.4.996</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F18" si="4">_xlfn.CONCAT(D3,": ", G3)</f>
-        <v>AM.4.996: Review and measure Asset Management activities for effectiveness.</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f t="shared" ref="G3:G18" si="5">_xlfn.CONCAT("Review and measure ",I3," activities for effectiveness.")</f>
-        <v>Review and measure Asset Management activities for effectiveness.</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17">
-      <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MC01: Improve Audit and Accountability activities</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>AU.4.996</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>AU.4.996</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>AU.4.996: Review and measure Audit and Accountability activities for effectiveness.</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Review and measure Audit and Accountability activities for effectiveness.</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17">
-      <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MC01: Improve Awareness and Training activities</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>AT.4.996</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>AT.4.996</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>AT.4.996: Review and measure Awareness and Training activities for effectiveness.</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Review and measure Awareness and Training activities for effectiveness.</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17">
-      <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MC01: Improve Configuration Management activities</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>CM.4.996</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CM.4.996</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>CM.4.996: Review and measure Configuration Management activities for effectiveness.</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Review and measure Configuration Management activities for effectiveness.</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17">
-      <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MC01: Improve Identification and Authentication activities</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>IA.4.996</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>IA.4.996</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>IA.4.996: Review and measure Identification and Authentication activities for effectiveness.</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Review and measure Identification and Authentication activities for effectiveness.</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17">
-      <c r="A8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MC01: Improve Incident Response activities</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>IR.4.996</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>IR.4.996</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>IR.4.996: Review and measure Incident Response activities for effectiveness.</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Review and measure Incident Response activities for effectiveness.</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17">
-      <c r="A9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MC01: Improve Maintenance activities</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MA.4.996</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>MA.4.996</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>MA.4.996: Review and measure Maintenance activities for effectiveness.</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Review and measure Maintenance activities for effectiveness.</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17">
-      <c r="A10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MC01: Improve Media Protection activities</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MP.4.996</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>MP.4.996</v>
-      </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>MP.4.996: Review and measure Media Protection activities for effectiveness.</v>
-      </c>
-      <c r="G10" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Review and measure Media Protection activities for effectiveness.</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17">
-      <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MC01: Improve Personnel Security activities</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>PS.4.996</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>PS.4.996</v>
-      </c>
-      <c r="F11" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PS.4.996: Review and measure Personnel Security activities for effectiveness.</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Review and measure Personnel Security activities for effectiveness.</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="17">
-      <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MC01: Improve Physical Protection activities</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>PE.4.996</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>PE.4.996</v>
-      </c>
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>PE.4.996: Review and measure Physical Protection activities for effectiveness.</v>
-      </c>
-      <c r="G12" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Review and measure Physical Protection activities for effectiveness.</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17">
-      <c r="A13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MC01: Improve Recovery activities</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>RE.4.996</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>RE.4.996</v>
-      </c>
-      <c r="F13" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>RE.4.996: Review and measure Recovery activities for effectiveness.</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Review and measure Recovery activities for effectiveness.</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="17">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MC01: Improve Risk Management activities</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>RM.4.996</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>RM.4.996</v>
-      </c>
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>RM.4.996: Review and measure Risk Management activities for effectiveness.</v>
-      </c>
-      <c r="G14" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Review and measure Risk Management activities for effectiveness.</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="17">
-      <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MC01: Improve Security Assessment activities</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>CA.4.996</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CA.4.996</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>CA.4.996: Review and measure Security Assessment activities for effectiveness.</v>
-      </c>
-      <c r="G15" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Review and measure Security Assessment activities for effectiveness.</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="17">
-      <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MC01: Improve Situational Awareness activities</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>SA.4.996</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SA.4.996</v>
-      </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>SA.4.996: Review and measure Situational Awareness activities for effectiveness.</v>
-      </c>
-      <c r="G16" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Review and measure Situational Awareness activities for effectiveness.</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="17">
-      <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MC01: Improve System and Communications Protection activities</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>SC.4.996</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SC.4.996</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>SC.4.996: Review and measure System and Communications Protection activities for effectiveness.</v>
-      </c>
-      <c r="G17" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Review and measure System and Communications Protection activities for effectiveness.</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="17">
-      <c r="A18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CMMC v1.02 Maturity Level 4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MC01: Improve System and Information Integrity activities</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>SI.4.996</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>SI.4.996</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>SI.4.996: Review and measure System and Information Integrity activities for effectiveness.</v>
-      </c>
-      <c r="G18" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>Review and measure System and Information Integrity activities for effectiveness.</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E78D9C1-42B5-894D-AC78-ACB22999BE15}">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="123.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="115.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="str">
         <f>"CMMC v1.02 Maturity Level 5"</f>
@@ -9592,7 +10755,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A18" si="0">"CMMC v1.02 Maturity Level 5"</f>
+        <f t="shared" ref="A3:A33" si="0">"CMMC v1.02 Maturity Level 5"</f>
         <v>CMMC v1.02 Maturity Level 5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -9607,7 +10770,7 @@
         <v>AM.5.995</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E18" si="3">D3</f>
+        <f t="shared" ref="E3:E33" si="3">D3</f>
         <v>AM.5.995</v>
       </c>
       <c r="F3" s="1" t="str">
@@ -10181,7 +11344,7 @@
         <v>SI.5.995</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.CONCAT(D18,": ", G18)</f>
         <v>SI.5.995: Standardize and optimize a documented approach for System and Information Integrity across all applicable organizational units.</v>
       </c>
       <c r="G18" s="1" t="str">
@@ -10198,8 +11361,444 @@
         <v>31</v>
       </c>
     </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>621</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AC.5.024</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f>_xlfn.CONCAT(D19,": ", G19)</f>
+        <v>AC.5.024: Identify and mitigate risk associated with unidentified wireless access points connected to the network.</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>622</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AU.5.055</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f>_xlfn.CONCAT(D20,": ", G20)</f>
+        <v>AU.5.055: Identify assets not reporting audit logs and assure appropriate organizationally defined systems are logging.</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
+        <v>623</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CM.5.074</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f>_xlfn.CONCAT(D21,": ", G21)</f>
+        <v>CM.5.074: Verify the integrity and correctness of security critical or essential software as defined by the organization (e.g., roots of trust, formal verification, or cryptographic signatures).</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>624</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IR.5.106</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>_xlfn.CONCAT(D22,": ", G22)</f>
+        <v>IR.5.106: In response to cyber incidents, utilize forensic data gathering across impacted systems, ensuring the secure transfer and protection of forensic data.</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" t="s">
+        <v>625</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IR.5.102</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>_xlfn.CONCAT(D23,": ", G23)</f>
+        <v>IR.5.102: Use a combination of manual and automated, real-time responses to anomalous activities that match incident patterns.</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" t="s">
+        <v>626</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IR.5.108</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>_xlfn.CONCAT(D24,": ", G24)</f>
+        <v>IR.5.108: Establish and maintain a cyber incident response team that can investigate an issue physically or virtually at any location within 24 hours.</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" t="s">
+        <v>627</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>IR.5.110</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>_xlfn.CONCAT(D25,": ", G25)</f>
+        <v>IR.5.110: Perform unannounced operational exercises to demonstrate technical and procedural responses.</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D26" t="s">
+        <v>628</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>RE.5.140</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>_xlfn.CONCAT(D26,": ", G26)</f>
+        <v>RE.5.140: Ensure information processing facilities meet organizationally defined information security continuity, redundancy, and availability requirements.</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" t="s">
+        <v>629</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>RM.5.152</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>_xlfn.CONCAT(D27,": ", G27)</f>
+        <v>RM.5.152: Utilize an exception process for non-whitelisted software that includes mitigation techniques.</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" t="s">
+        <v>630</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>RM.5.155</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f>_xlfn.CONCAT(D28,": ", G28)</f>
+        <v>RM.5.155: Analyze the effectiveness of security solutions at least annually to address anticipated risk to the system and the organization based on current and accumulated threat intelligence.</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" t="s">
+        <v>566</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SC.5.198</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f>_xlfn.CONCAT(D29,": ", G29)</f>
+        <v>SC.5.198: Configure monitoring systems to record packets passing through the organization's Internet network boundaries and other organizationally defined boundaries.</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" t="s">
+        <v>567</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SC.5.230</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f>_xlfn.CONCAT(D30,": ", G30)</f>
+        <v>SC.5.230: Enforce port and protocol compliance.</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31" t="s">
+        <v>631</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SC.5.208</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f>_xlfn.CONCAT(D31,": ", G31)</f>
+        <v>SC.5.208: Employ organizationally defined and tailored boundary protections in addition to commercially available solutions.</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D32" t="s">
+        <v>632</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SI.5.222</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f>_xlfn.CONCAT(D32,": ", G32)</f>
+        <v>SI.5.222: Analyze system behavior to detect and mitigate execution of normal system commands and scripts that indicate malicious actions.</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17">
+      <c r="A33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CMMC v1.02 Maturity Level 5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" t="s">
+        <v>633</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>SI.5.223</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f>_xlfn.CONCAT(D33,": ", G33)</f>
+        <v>SI.5.223: Monitor individuals and system components on an ongoing basis for anomalous or suspicious behavior.</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Control Frameworks/CMMC v1.02/CMMC v1.02 (All Maturity Levels).xlsx
+++ b/Control Frameworks/CMMC v1.02/CMMC v1.02 (All Maturity Levels).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsokol/Documents/git/simplerisk/import-content/Control Frameworks/CMMC v1.02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE72C90-D8E0-D540-B251-0CDDB3E5BE0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE1C608-1176-E84F-9075-1EB1D469DB65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20260" yWindow="460" windowWidth="30340" windowHeight="16940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20260" yWindow="460" windowWidth="30340" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CMMC v1.02 Maturity Level 1" sheetId="3" r:id="rId1"/>
@@ -3346,7 +3346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1181B36C-6D61-4E43-8411-924D05A97DEE}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -3837,9 +3837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7062778B-DC78-BF47-BA7F-83C659A1FE69}">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -6817,9 +6815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C76"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -9206,9 +9202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95FA5B7-9436-324E-80C2-1BF95F9E19C1}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C44"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -10667,7 +10661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E78D9C1-42B5-894D-AC78-ACB22999BE15}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -10774,7 +10768,7 @@
         <v>AM.5.995</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F18" si="4">_xlfn.CONCAT(D3,": ", G3)</f>
+        <f t="shared" ref="F3:F17" si="4">_xlfn.CONCAT(D3,": ", G3)</f>
         <v>AM.5.995: Standardize and optimize a documented approach for Asset Management across all applicable organizational units.</v>
       </c>
       <c r="G3" s="1" t="str">
@@ -11344,7 +11338,7 @@
         <v>SI.5.995</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f>_xlfn.CONCAT(D18,": ", G18)</f>
+        <f t="shared" ref="F18:F33" si="6">_xlfn.CONCAT(D18,": ", G18)</f>
         <v>SI.5.995: Standardize and optimize a documented approach for System and Information Integrity across all applicable organizational units.</v>
       </c>
       <c r="G18" s="1" t="str">
@@ -11380,7 +11374,7 @@
         <v>AC.5.024</v>
       </c>
       <c r="F19" s="1" t="str">
-        <f>_xlfn.CONCAT(D19,": ", G19)</f>
+        <f t="shared" si="6"/>
         <v>AC.5.024: Identify and mitigate risk associated with unidentified wireless access points connected to the network.</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -11409,7 +11403,7 @@
         <v>AU.5.055</v>
       </c>
       <c r="F20" s="1" t="str">
-        <f>_xlfn.CONCAT(D20,": ", G20)</f>
+        <f t="shared" si="6"/>
         <v>AU.5.055: Identify assets not reporting audit logs and assure appropriate organizationally defined systems are logging.</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -11438,7 +11432,7 @@
         <v>CM.5.074</v>
       </c>
       <c r="F21" s="1" t="str">
-        <f>_xlfn.CONCAT(D21,": ", G21)</f>
+        <f t="shared" si="6"/>
         <v>CM.5.074: Verify the integrity and correctness of security critical or essential software as defined by the organization (e.g., roots of trust, formal verification, or cryptographic signatures).</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -11467,7 +11461,7 @@
         <v>IR.5.106</v>
       </c>
       <c r="F22" s="1" t="str">
-        <f>_xlfn.CONCAT(D22,": ", G22)</f>
+        <f t="shared" si="6"/>
         <v>IR.5.106: In response to cyber incidents, utilize forensic data gathering across impacted systems, ensuring the secure transfer and protection of forensic data.</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -11496,7 +11490,7 @@
         <v>IR.5.102</v>
       </c>
       <c r="F23" s="1" t="str">
-        <f>_xlfn.CONCAT(D23,": ", G23)</f>
+        <f t="shared" si="6"/>
         <v>IR.5.102: Use a combination of manual and automated, real-time responses to anomalous activities that match incident patterns.</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -11525,7 +11519,7 @@
         <v>IR.5.108</v>
       </c>
       <c r="F24" s="1" t="str">
-        <f>_xlfn.CONCAT(D24,": ", G24)</f>
+        <f t="shared" si="6"/>
         <v>IR.5.108: Establish and maintain a cyber incident response team that can investigate an issue physically or virtually at any location within 24 hours.</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -11554,7 +11548,7 @@
         <v>IR.5.110</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f>_xlfn.CONCAT(D25,": ", G25)</f>
+        <f t="shared" si="6"/>
         <v>IR.5.110: Perform unannounced operational exercises to demonstrate technical and procedural responses.</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -11583,7 +11577,7 @@
         <v>RE.5.140</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f>_xlfn.CONCAT(D26,": ", G26)</f>
+        <f t="shared" si="6"/>
         <v>RE.5.140: Ensure information processing facilities meet organizationally defined information security continuity, redundancy, and availability requirements.</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -11612,7 +11606,7 @@
         <v>RM.5.152</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f>_xlfn.CONCAT(D27,": ", G27)</f>
+        <f t="shared" si="6"/>
         <v>RM.5.152: Utilize an exception process for non-whitelisted software that includes mitigation techniques.</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -11641,7 +11635,7 @@
         <v>RM.5.155</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f>_xlfn.CONCAT(D28,": ", G28)</f>
+        <f t="shared" si="6"/>
         <v>RM.5.155: Analyze the effectiveness of security solutions at least annually to address anticipated risk to the system and the organization based on current and accumulated threat intelligence.</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -11670,7 +11664,7 @@
         <v>SC.5.198</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f>_xlfn.CONCAT(D29,": ", G29)</f>
+        <f t="shared" si="6"/>
         <v>SC.5.198: Configure monitoring systems to record packets passing through the organization's Internet network boundaries and other organizationally defined boundaries.</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -11699,7 +11693,7 @@
         <v>SC.5.230</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f>_xlfn.CONCAT(D30,": ", G30)</f>
+        <f t="shared" si="6"/>
         <v>SC.5.230: Enforce port and protocol compliance.</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -11728,7 +11722,7 @@
         <v>SC.5.208</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f>_xlfn.CONCAT(D31,": ", G31)</f>
+        <f t="shared" si="6"/>
         <v>SC.5.208: Employ organizationally defined and tailored boundary protections in addition to commercially available solutions.</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -11757,7 +11751,7 @@
         <v>SI.5.222</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f>_xlfn.CONCAT(D32,": ", G32)</f>
+        <f t="shared" si="6"/>
         <v>SI.5.222: Analyze system behavior to detect and mitigate execution of normal system commands and scripts that indicate malicious actions.</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -11786,7 +11780,7 @@
         <v>SI.5.223</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f>_xlfn.CONCAT(D33,": ", G33)</f>
+        <f t="shared" si="6"/>
         <v>SI.5.223: Monitor individuals and system components on an ongoing basis for anomalous or suspicious behavior.</v>
       </c>
       <c r="G33" s="1" t="s">
